--- a/skript/aussteller1.xlsx
+++ b/skript/aussteller1.xlsx
@@ -25,7 +25,7 @@
     <t>3L-Verlag</t>
   </si>
   <si>
-    <t>[{'idn': '998276634'}, {'idn': '998268941'}, {'idn': '007453825'}, {'idn': '97622240X'}, {'idn': '115618763X'}, {'idn': '1186391227'}, {'idn': '1130331504'}, {'idn': '1156187893'}, {'idn': '1186391499'}, {'idn': '1083046675'}, {'idn': '990351203'}, {'idn': '1027538843'}, {'idn': '1007631031'}, {'idn': '966367154'}, {'idn': '007604513'}, {'idn': '954894235'}, {'idn': '942652223'}, {'idn': '050930303'}, {'idn': '945626908'}, {'idn': '956818277'}, {'idn': '944974538'}, {'idn': '050125648'}, {'idn': '953635732'}, {'idn': '95346203X'}, {'idn': '955116759'}, {'idn': '990264262'}, {'idn': '004842294'}, {'idn': '95711012X'}, {'idn': '1028977743'}, {'idn': '99816853X'}, {'idn': '981342795'}, {'idn': '320463109'}, {'idn': '1206271167'}, {'idn': '1015093078'}, {'idn': '961170093'}, {'idn': '994896336'}, {'idn': '320270602'}, {'idn': '1237247934'}, {'idn': '1228830452'}, {'idn': '123285882X'}, {'idn': '051104180'}, {'idn': '108656801X'}, {'idn': '1087265975'}, {'idn': '051272458'}]</t>
+    <t>[{'idn': '1237247934'}, {'idn': '123696005X'}, {'idn': '1130595897'}, {'idn': '1222678195'}, {'idn': '1197059202'}, {'idn': '1206755911'}, {'idn': '1145195768'}, {'idn': '117010309X'}, {'idn': '1223136310'}, {'idn': '1204021902'}, {'idn': '1252924151'}, {'idn': '118182088X'}, {'idn': '1136873996'}, {'idn': '1193617022'}, {'idn': '1068409002'}, {'idn': '1211612406'}, {'idn': '106872045X'}, {'idn': '1153127520'}, {'idn': '1008428582'}, {'idn': '1235550370'}, {'idn': '120914493X'}, {'idn': '123285882X'}, {'idn': '00775647X'}, {'idn': '320270602'}, {'idn': '104779389X'}, {'idn': '051104180'}, {'idn': '998275352'}, {'idn': '998276634'}, {'idn': '998268941'}, {'idn': '007453825'}, {'idn': '97622240X'}, {'idn': '1192847377'}, {'idn': '1242936483'}, {'idn': '116773789X'}, {'idn': '1284130371'}, {'idn': '1083046675'}, {'idn': '95126673X'}, {'idn': '1058765868'}, {'idn': '990351203'}, {'idn': '108656801X'}, {'idn': '954895193'}, {'idn': '1042347360'}, {'idn': '1201784786'}, {'idn': '1087265975'}, {'idn': '1027538843'}, {'idn': '120821019X'}, {'idn': '1007631031'}, {'idn': '966367154'}, {'idn': '1155511182'}, {'idn': '1162299347'}, {'idn': '007604513'}, {'idn': '1087154197'}, {'idn': '954894235'}, {'idn': '949022608'}, {'idn': '942652223'}, {'idn': '050930303'}, {'idn': '944920152'}, {'idn': '945626908'}, {'idn': '956818277'}, {'idn': '944974538'}, {'idn': '050125648'}, {'idn': '953635732'}, {'idn': '1264968760'}, {'idn': '976349205'}, {'idn': '1249129273'}, {'idn': '95346203X'}, {'idn': '955116759'}, {'idn': '990264262'}, {'idn': '1086110978'}, {'idn': '121260413X'}, {'idn': '1015328350'}, {'idn': '004842294'}, {'idn': '95711012X'}, {'idn': '99816853X'}, {'idn': '981342795'}, {'idn': '1081380039'}, {'idn': '320463109'}, {'idn': '1160539774'}, {'idn': '1162550023'}, {'idn': '1242731245'}, {'idn': '126350213X'}, {'idn': '1087266424'}, {'idn': '1087268710'}, {'idn': '1245182730'}, {'idn': '1211613038'}, {'idn': '1246711842'}, {'idn': '1242685138'}, {'idn': '051272458'}, {'idn': '1086357086'}, {'idn': '1015093078'}, {'idn': '961170093'}, {'idn': '1228830452'}, {'idn': '1081396989'}, {'idn': '994896336'}, {'idn': '1086065301'}, {'idn': '106536248X'}, {'idn': '1065797702'}, {'idn': '1283230852'}, {'idn': '109998727X'}]</t>
   </si>
 </sst>
 </file>
